--- a/EC/Train Runs and Enforcements 2016-06-30.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-30.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2026,9 +2026,6 @@
     <t>Onboard in-route failure. Re-initialized at 38th</t>
   </si>
   <si>
-    <t>No issues found - any insights from ops?</t>
-  </si>
-  <si>
     <t>Overspeed</t>
   </si>
   <si>
@@ -2039,6 +2036,9 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>ATC was cut out, PTC affected as well. Had to run in ABS Block. Vehicle maintenance is aware.</t>
   </si>
 </sst>
 </file>
@@ -2665,63 +2665,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_XINGS" xfId="1"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -3155,8 +3099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM203"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14013,7 +13957,7 @@
       </c>
       <c r="Q120" s="35"/>
       <c r="R120" s="35" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="S120" s="59">
         <f t="shared" si="24"/>
@@ -20003,47 +19947,47 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="W11:W12 W13:X1048576">
-    <cfRule type="cellIs" dxfId="23" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="75" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X1048576">
-    <cfRule type="cellIs" dxfId="22" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="58" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X1048576">
-    <cfRule type="cellIs" dxfId="21" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:S14 A13:J13 L13:S13 A15:J152 K15:S203">
-    <cfRule type="expression" dxfId="20" priority="51">
+    <cfRule type="expression" dxfId="12" priority="51">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:S14 A13:J13 L13:S13 A15:J152 K15:S203">
-    <cfRule type="expression" dxfId="19" priority="50">
+    <cfRule type="expression" dxfId="11" priority="50">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:J154">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>$O154&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:J154">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$P154&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20101,8 +20045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20136,7 +20080,7 @@
       <c r="L2" s="61"/>
       <c r="M2" s="62">
         <f>COUNTIF($M$7:$M$830,"=Y")</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P2" s="44"/>
     </row>
@@ -20148,7 +20092,7 @@
       <c r="L3" s="64"/>
       <c r="M3" s="65">
         <f>COUNTA($M$7:$M$830)-M2</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P3" s="44"/>
     </row>
@@ -20265,7 +20209,7 @@
         <v>128</v>
       </c>
       <c r="N7" s="55" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P7" s="43" t="str">
         <f>VLOOKUP(C7,'Train Runs'!$A$13:$V$988,22,0)</f>
@@ -20531,7 +20475,7 @@
         <v>128</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O12" s="33"/>
       <c r="P12" s="43" t="str">
@@ -21611,7 +21555,7 @@
         <v>128</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="43" t="str">
@@ -21665,7 +21609,7 @@
         <v>128</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="43" t="str">
@@ -21770,10 +21714,10 @@
         <v>ROCHA</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="43" t="str">
@@ -21932,10 +21876,10 @@
         <v>MAYBERRY</v>
       </c>
       <c r="M39" s="55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="43" t="str">
@@ -21989,7 +21933,7 @@
         <v>127</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="43">
@@ -24482,22 +24426,22 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="P6 M6:N6 M7:M1048576">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M53:N70 A53:K70 L53:L107 A7:N52">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M52">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24511,7 +24455,7 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35643,7 +35587,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J3" sqref="J3:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EC/Train Runs and Enforcements 2016-06-30.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-30.xlsx
@@ -2393,7 +2393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2660,6 +2660,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3100,7 +3101,7 @@
   <dimension ref="A1:CM203"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3495,6 +3496,10 @@
       <c r="N11" s="96"/>
       <c r="O11" s="96"/>
       <c r="P11" s="96"/>
+      <c r="S11" s="106">
+        <f>AVERAGE(S13:S99999)</f>
+        <v>0.98661800486618001</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
